--- a/data/analysis-data/Dietary_Variables.xlsx
+++ b/data/analysis-data/Dietary_Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leigh_greathouse/Box/Fiber and the Gut Microbiome/Diet Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahp\Box\Research\Greathouse-Padgett\Fiber_Intervention_Study\data\analysis-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64DE7B4D-B3A1-9E44-8685-E9A9D9D0B6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA74E9F-1E23-4F1D-87C5-F0DFCE8ACBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="26400" windowHeight="14120" xr2:uid="{8BB5ACD8-CAA6-42DF-A288-FDF32F03C95E}"/>
+    <workbookView xWindow="10164" yWindow="240" windowWidth="11748" windowHeight="12096" xr2:uid="{8BB5ACD8-CAA6-42DF-A288-FDF32F03C95E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>NUTRIENTS</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>BFiber1015</t>
+  </si>
+  <si>
+    <t>BFiber1001</t>
+  </si>
+  <si>
+    <t>BFiber1012</t>
   </si>
 </sst>
 </file>
@@ -571,37 +577,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE677691-C8ED-44E7-B0FC-FE92FC25B762}">
-  <dimension ref="A1:BB23"/>
+  <dimension ref="A1:BB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2:AO23"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BB25" sqref="C24:BB25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="13" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="11" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -765,7 +771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -923,7 +929,7 @@
         <v>16.162749999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2661,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>3.782</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -3135,7 +3141,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>4.9279999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -4083,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -4239,6 +4245,22 @@
       </c>
       <c r="BB23">
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
